--- a/自己申请Oct_30.xlsx
+++ b/自己申请Oct_30.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01EE7E-34AE-E44B-B5B0-26C8DCA1EB3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB8EEF1-58FF-0344-AB12-B431B9E140D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="197">
   <si>
     <t>账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,14 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>推荐信2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐信3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>推荐信状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +157,6 @@
   <si>
     <t>已发送WES</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐信1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>T送分</t>
@@ -338,9 +326,6 @@
     <t>$90 USD</t>
   </si>
   <si>
-    <t>学费</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
@@ -429,32 +414,6 @@
   </si>
   <si>
     <t>January 15th 2021 (1st Priority), February 15th 2021 (2nd priority)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">the early: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>November 19th 2020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, final: December 10th 2020</t>
-    </r>
   </si>
   <si>
     <t>DECEMBER 1st 2020, 23:59, PST</t>
@@ -711,9 +670,6 @@
     <t>https://grad.ucsd.edu/admissions/requirements/statement-of-purpose.html</t>
   </si>
   <si>
-    <t>November/December ~ 15 March 2021</t>
-  </si>
-  <si>
     <t>institution code 1836</t>
   </si>
   <si>
@@ -843,6 +799,57 @@
   <si>
     <t>不需要</t>
   </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the early: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>November 19th 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="2"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, final: December 10th 2020</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;= 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidates are required to produce the originals of the earlier submitted certified true copies of documents for the School’s verification during enrolment (if your application is successful).
+</t>
+  </si>
+  <si>
+    <t>1 January 2021 ~ 15 March 2021</t>
+  </si>
+  <si>
+    <t>王雷</t>
+  </si>
+  <si>
+    <t>熊杰</t>
+  </si>
+  <si>
+    <t>韩光洁</t>
+  </si>
+  <si>
+    <t>陈志奎</t>
+  </si>
 </sst>
 </file>
 
@@ -851,7 +858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,12 +967,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1016,13 +1017,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="13"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -1032,8 +1026,78 @@
       <sz val="13"/>
       <name val="Sim Sun"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="2"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,12 +1190,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1184,7 +1242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1252,27 +1310,18 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1288,40 +1337,34 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1345,13 +1388,55 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1361,77 +1446,7 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 2 2 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79982909634693444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79982909634693444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79982909634693444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79982909634693444"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF002060"/>
@@ -1579,26 +1594,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79982909634693444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.79982909634693444"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2074,15 +2069,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="37" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="37.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -2092,21 +2087,22 @@
     <col min="9" max="9" width="12.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.1640625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.83203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="50.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="28.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16" style="1" customWidth="1"/>
-    <col min="23" max="24" width="16.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="23.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="50.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="28.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="28.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="23" width="16.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.1640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1"/>
     <col min="30" max="30" width="13.5" style="1" customWidth="1"/>
     <col min="31" max="31" width="17.6640625" style="1" customWidth="1"/>
@@ -2116,10 +2112,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="2" customFormat="1" ht="62" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>3</v>
@@ -2134,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>2</v>
@@ -2149,309 +2145,319 @@
         <v>19</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:34" s="49" customFormat="1" ht="153" customHeight="1">
+      <c r="A2" s="41">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="42" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" s="54" customFormat="1" ht="153" customHeight="1">
-      <c r="A2" s="46">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="U2" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="52" t="s">
+      <c r="P2" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF2" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="X2" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
     </row>
     <row r="3" spans="1:34" ht="156" customHeight="1">
-      <c r="A3" s="33">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>79</v>
+      <c r="B3" s="31" t="s">
+        <v>75</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="N3" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="X3" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="20" t="s">
-        <v>166</v>
-      </c>
       <c r="AF3" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17"/>
     </row>
     <row r="4" spans="1:34" ht="82" customHeight="1">
-      <c r="A4" s="33">
+      <c r="A4" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>54</v>
+      <c r="B4" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>96</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="18"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="N4" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="Q4" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y4" s="17"/>
+      <c r="X4" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="Z4" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB4" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC4" s="20" t="s">
         <v>12</v>
@@ -2460,82 +2466,86 @@
         <v>12</v>
       </c>
       <c r="AE4" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG4" s="17"/>
       <c r="AH4" s="17"/>
     </row>
     <row r="5" spans="1:34" ht="82" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>167</v>
+      <c r="B5" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="18"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>182</v>
+      </c>
       <c r="N5" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O5" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="X5" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="O5" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y5" s="17"/>
+      <c r="Y5" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="Z5" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA5" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB5" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC5" s="20" t="s">
         <v>12</v>
@@ -2544,76 +2554,86 @@
         <v>12</v>
       </c>
       <c r="AE5" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG5" s="17"/>
       <c r="AH5" s="17"/>
     </row>
-    <row r="6" spans="1:34" ht="143" customHeight="1">
-      <c r="A6" s="45">
-        <v>3</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>175</v>
+    <row r="6" spans="1:34" ht="80" customHeight="1">
+      <c r="A6" s="30">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>95</v>
+        <v>168</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="18"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="M6" s="26">
+        <v>4836</v>
+      </c>
+      <c r="N6" s="26">
+        <v>4836</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>152</v>
+      </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="20" t="s">
+      <c r="T6" s="21"/>
+      <c r="U6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="W6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y6" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="X6" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="Z6" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA6" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB6" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC6" s="20" t="s">
         <v>12</v>
@@ -2622,80 +2642,86 @@
         <v>12</v>
       </c>
       <c r="AE6" s="20" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="AF6" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG6" s="17"/>
       <c r="AH6" s="17"/>
     </row>
-    <row r="7" spans="1:34" ht="79" customHeight="1">
-      <c r="A7" s="45">
-        <v>3</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>91</v>
+    <row r="7" spans="1:34" ht="80" customHeight="1">
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>75</v>
+        <v>100</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>101</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="18"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="28">
-        <v>2111</v>
-      </c>
-      <c r="O7" s="28">
-        <v>2111</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q7" s="27"/>
+        <v>103</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="V7" s="20" t="s">
+      <c r="T7" s="18"/>
+      <c r="U7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y7" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="X7" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="Z7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB7" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC7" s="20" t="s">
         <v>12</v>
@@ -2704,82 +2730,82 @@
         <v>12</v>
       </c>
       <c r="AE7" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG7" s="17"/>
       <c r="AH7" s="17"/>
     </row>
     <row r="8" spans="1:34" ht="80" customHeight="1">
-      <c r="A8" s="33">
-        <v>4</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>89</v>
+      <c r="A8" s="27">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>110</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="18"/>
       <c r="K8" s="17"/>
       <c r="L8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="29">
-        <v>4836</v>
-      </c>
-      <c r="O8" s="29">
-        <v>4836</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>157</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="20" t="s">
+      <c r="T8" s="18"/>
+      <c r="U8" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="W8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y8" s="17"/>
+      <c r="X8" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="Z8" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA8" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB8" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC8" s="20" t="s">
         <v>12</v>
@@ -2788,160 +2814,161 @@
         <v>12</v>
       </c>
       <c r="AE8" s="20" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="AF8" s="20" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
     </row>
     <row r="9" spans="1:34" ht="80" customHeight="1">
-      <c r="A9" s="33">
-        <v>5</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>110</v>
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>106</v>
+        <v>116</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="18"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="17"/>
+        <v>117</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="N9" s="17" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>163</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="20" t="s">
-        <v>12</v>
+      <c r="T9" s="18"/>
+      <c r="U9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="W9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y9" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="X9" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y9" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="Z9" s="20" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="AA9" s="20" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="AB9" s="20" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="AC9" s="20" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="AD9" s="20" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="AE9" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AG9" s="17"/>
       <c r="AH9" s="17"/>
     </row>
     <row r="10" spans="1:34" ht="80" customHeight="1">
-      <c r="A10" s="30">
-        <v>6</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>115</v>
+      <c r="A10" s="27">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>127</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="18"/>
       <c r="K10" s="17"/>
       <c r="L10" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="M10" s="17"/>
+        <v>126</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="N10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>112</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="O10" s="17"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="20" t="s">
+      <c r="T10" s="18"/>
+      <c r="U10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="W10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y10" s="17"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="Z10" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA10" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB10" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC10" s="20" t="s">
         <v>12</v>
@@ -2959,472 +2986,450 @@
       <c r="AH10" s="17"/>
     </row>
     <row r="11" spans="1:34" ht="80" customHeight="1">
-      <c r="A11" s="55">
-        <v>7</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="27">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>120</v>
+      <c r="C11" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="18"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>191</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="20" t="s">
-        <v>166</v>
+      <c r="T11" s="18"/>
+      <c r="U11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="W11" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y11" s="17"/>
+        <v>12</v>
+      </c>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="Z11" s="20" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="AG11" s="17"/>
       <c r="AH11" s="17"/>
     </row>
     <row r="12" spans="1:34" ht="80" customHeight="1">
-      <c r="A12" s="30">
-        <v>8</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>132</v>
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>141</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="18"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="M12" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="N12" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>126</v>
+        <v>140</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="20" t="s">
-        <v>12</v>
+      <c r="T12" s="18"/>
+      <c r="U12" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="17"/>
+        <v>148</v>
+      </c>
+      <c r="X12" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="Z12" s="20" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="AA12" s="20" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="AB12" s="20" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="AC12" s="20" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="AD12" s="20" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="AE12" s="20" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="AG12" s="17"/>
       <c r="AH12" s="17"/>
     </row>
-    <row r="13" spans="1:34" ht="80" customHeight="1">
-      <c r="A13" s="30">
-        <v>9</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
+    <row r="13" spans="1:34" s="60" customFormat="1" ht="143" customHeight="1">
+      <c r="A13" s="53">
+        <v>3</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="O13" s="58"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
     </row>
-    <row r="14" spans="1:34" ht="80" customHeight="1">
-      <c r="A14" s="55">
-        <v>10</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="20" t="s">
+    <row r="14" spans="1:34" s="60" customFormat="1" ht="79" customHeight="1">
+      <c r="A14" s="53">
+        <v>3</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="62">
+        <v>2111</v>
+      </c>
+      <c r="N14" s="62">
+        <v>2111</v>
+      </c>
+      <c r="O14" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="W14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA14" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB14" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC14" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD14" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF14" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
+      <c r="U14" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA14" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC14" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF14" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="W2:X14">
-    <cfRule type="containsText" dxfId="37" priority="173" operator="containsText" text="已撤回/放弃">
-      <formula>NOT(ISERROR(SEARCH("已撤回/放弃",W2)))</formula>
+  <conditionalFormatting sqref="V2:W14">
+    <cfRule type="containsText" dxfId="28" priority="178" operator="containsText" text="已撤回/放弃">
+      <formula>NOT(ISERROR(SEARCH("已撤回/放弃",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="174" operator="containsText" text="已拒绝">
-      <formula>NOT(ISERROR(SEARCH("已拒绝",W2)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="179" operator="containsText" text="已拒绝">
+      <formula>NOT(ISERROR(SEARCH("已拒绝",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="175" operator="containsText" text="已录取">
-      <formula>NOT(ISERROR(SEARCH("已录取",W2)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="180" operator="containsText" text="已录取">
+      <formula>NOT(ISERROR(SEARCH("已录取",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="176" operator="containsText" text="已完成未提交">
-      <formula>NOT(ISERROR(SEARCH("已完成未提交",W2)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="181" operator="containsText" text="已完成未提交">
+      <formula>NOT(ISERROR(SEARCH("已完成未提交",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="177" operator="containsText" text="已提交">
-      <formula>NOT(ISERROR(SEARCH("已提交",W2)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="182" operator="containsText" text="已提交">
+      <formula>NOT(ISERROR(SEARCH("已提交",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="178" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",W2)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="183" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AD14 AF2:AF14 V2:V14">
-    <cfRule type="cellIs" dxfId="31" priority="140" operator="equal">
+  <conditionalFormatting sqref="U2:U14 AC2:AF14">
+    <cfRule type="cellIs" dxfId="22" priority="145" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="146" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="166" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",V2)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="171" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="167" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",V2)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="172" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC6:AD7">
-    <cfRule type="containsText" dxfId="27" priority="168" operator="containsText" text="未完成">
+  <conditionalFormatting sqref="AC7:AD14 U7:U12">
+    <cfRule type="containsText" dxfId="18" priority="173" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",U7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="174" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",U7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC6:AD6">
+    <cfRule type="containsText" dxfId="16" priority="169" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",AC6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="169" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="15" priority="170" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",AC6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC8:AD8">
-    <cfRule type="containsText" dxfId="25" priority="164" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AC8)))</formula>
+  <conditionalFormatting sqref="Y2:AB14">
+    <cfRule type="cellIs" dxfId="14" priority="157" operator="equal">
+      <formula>"已提交"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="165" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AC8)))</formula>
+    <cfRule type="cellIs" dxfId="13" priority="158" operator="equal">
+      <formula>"已发送"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="159" operator="equal">
+      <formula>"未发送"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="161" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="162" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC9:AD14">
-    <cfRule type="containsText" dxfId="23" priority="160" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AC9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="161" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AC9)))</formula>
+  <conditionalFormatting sqref="U2:U14 AC2:AF14">
+    <cfRule type="cellIs" dxfId="9" priority="160" operator="equal">
+      <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:AB14">
-    <cfRule type="cellIs" dxfId="21" priority="152" operator="equal">
-      <formula>"已提交"</formula>
+  <conditionalFormatting sqref="V2:V14">
+    <cfRule type="cellIs" dxfId="8" priority="150" operator="equal">
+      <formula>"已录取"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="153" operator="equal">
-      <formula>"已发送"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="154" operator="equal">
-      <formula>"未发送"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="156" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",Z2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="157" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",Z2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AD14 AF2:AF14 V2:V14">
-    <cfRule type="cellIs" dxfId="16" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="156" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:W14">
-    <cfRule type="cellIs" dxfId="15" priority="145" operator="equal">
-      <formula>"已录取"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="151" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X14">
-    <cfRule type="cellIs" dxfId="13" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="147" operator="equal">
       <formula>"已发送WES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="148" operator="equal">
       <formula>"已邮寄"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="149" operator="equal">
       <formula>"已上传"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V7">
-    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",V6)))</formula>
+  <conditionalFormatting sqref="U13:U14">
+    <cfRule type="containsText" dxfId="3" priority="22" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",U13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",V6)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="23" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",U13)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8">
-    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",V8)))</formula>
+  <conditionalFormatting sqref="U6">
+    <cfRule type="containsText" dxfId="1" priority="18" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",U6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",V8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V9:V14">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",V9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",V9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AE2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AE2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE14">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"未完成"</formula>
+    <cfRule type="containsText" dxfId="0" priority="19" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",U6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已上传,已邮寄,未完成,已发送WES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V14 AC2:AF14" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AF14 U2:U14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"完成,未完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W14" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V14" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"未完成,已完成未提交,已提交,已录取,已拒绝,已放弃"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3433,53 +3438,53 @@
     <hyperlink ref="F4" r:id="rId2" xr:uid="{9A432B00-965C-AB42-B67C-51418D5122A5}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{8F4C338D-1377-DE4F-828B-3D44253E2073}"/>
     <hyperlink ref="H4" r:id="rId4" xr:uid="{8E3C88F2-9AF5-D64F-8AC5-F66288C8FB30}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{0F8FCD94-3B62-3246-959B-2B005463D40D}"/>
-    <hyperlink ref="F7" r:id="rId6" location="masters" xr:uid="{B8821E72-9506-A440-986E-E4C65B733324}"/>
-    <hyperlink ref="G7" r:id="rId7" xr:uid="{16BDE2BD-10EB-0D43-AE55-6924BDD24C5C}"/>
-    <hyperlink ref="H7" r:id="rId8" xr:uid="{7A35DB9B-39B9-B94E-8E0F-F52A0BEE13CC}"/>
-    <hyperlink ref="F6" r:id="rId9" xr:uid="{EB72BB34-B9CF-1246-962B-EADDB7181B1A}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{D829DA85-3865-5A45-8631-50C912F52909}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{20280955-E01F-B84E-BC64-21DBF9BDAC90}"/>
-    <hyperlink ref="E8" r:id="rId12" location="computer-science-cs75" xr:uid="{B8DC731B-C11B-9F40-9DEC-8F9327DF9FD3}"/>
-    <hyperlink ref="G8" r:id="rId13" location="grerequired" xr:uid="{F814858C-5886-B74F-BD77-C19B6A9BE747}"/>
-    <hyperlink ref="H8" r:id="rId14" xr:uid="{F3E12688-2A5D-FA41-B248-C27EACBC690E}"/>
-    <hyperlink ref="E6" r:id="rId15" xr:uid="{ABA11A09-3274-1A42-BD5A-A9820A218532}"/>
+    <hyperlink ref="E14" r:id="rId5" xr:uid="{0F8FCD94-3B62-3246-959B-2B005463D40D}"/>
+    <hyperlink ref="F14" r:id="rId6" location="masters" xr:uid="{B8821E72-9506-A440-986E-E4C65B733324}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{16BDE2BD-10EB-0D43-AE55-6924BDD24C5C}"/>
+    <hyperlink ref="H14" r:id="rId8" xr:uid="{7A35DB9B-39B9-B94E-8E0F-F52A0BEE13CC}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{EB72BB34-B9CF-1246-962B-EADDB7181B1A}"/>
+    <hyperlink ref="G13" r:id="rId10" xr:uid="{D829DA85-3865-5A45-8631-50C912F52909}"/>
+    <hyperlink ref="F6" r:id="rId11" xr:uid="{20280955-E01F-B84E-BC64-21DBF9BDAC90}"/>
+    <hyperlink ref="E6" r:id="rId12" location="computer-science-cs75" xr:uid="{B8DC731B-C11B-9F40-9DEC-8F9327DF9FD3}"/>
+    <hyperlink ref="G6" r:id="rId13" location="grerequired" xr:uid="{F814858C-5886-B74F-BD77-C19B6A9BE747}"/>
+    <hyperlink ref="H6" r:id="rId14" xr:uid="{F3E12688-2A5D-FA41-B248-C27EACBC690E}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{ABA11A09-3274-1A42-BD5A-A9820A218532}"/>
     <hyperlink ref="E3" r:id="rId16" xr:uid="{DA7527E5-9E46-A34D-BEAB-B773214DA848}"/>
     <hyperlink ref="F3" r:id="rId17" xr:uid="{33E5CADA-C993-4241-81AE-4A65EEFC20BB}"/>
     <hyperlink ref="G3" r:id="rId18" xr:uid="{88C01A3E-0D3B-E846-891A-CC0E7937F8A2}"/>
     <hyperlink ref="H3" r:id="rId19" xr:uid="{00A3326F-ACEB-5E41-9193-1EBEE4188C43}"/>
-    <hyperlink ref="H9" r:id="rId20" xr:uid="{591B7222-5477-E148-ABD9-FF20168E7657}"/>
-    <hyperlink ref="E9" r:id="rId21" xr:uid="{68AD0283-000E-1543-8C12-9982492CE858}"/>
-    <hyperlink ref="G9" r:id="rId22" xr:uid="{597A4B13-DC10-984D-8F0B-C7E55553D416}"/>
-    <hyperlink ref="F9" r:id="rId23" xr:uid="{47293E41-B350-3B46-8C4D-E84E5723B60A}"/>
-    <hyperlink ref="E10" r:id="rId24" xr:uid="{9E6B7615-1A63-3541-98FF-B2C298891114}"/>
-    <hyperlink ref="F10" r:id="rId25" xr:uid="{D1F4DB91-B060-0F40-8213-B4D96C0CD60C}"/>
-    <hyperlink ref="G10" r:id="rId26" xr:uid="{C185517C-0C6A-F248-AB9C-8E769857CC97}"/>
-    <hyperlink ref="H10" r:id="rId27" xr:uid="{0E49D778-1419-3A42-B937-0135BE140612}"/>
-    <hyperlink ref="E11" r:id="rId28" xr:uid="{9EC4233D-2824-A744-B3A4-56E54B82BA4A}"/>
-    <hyperlink ref="H11" r:id="rId29" xr:uid="{AC06A16C-CC15-C84D-86E0-5CBE81C52D67}"/>
-    <hyperlink ref="F11" r:id="rId30" xr:uid="{4DBDA220-0094-CA4D-9450-D0D468C5CB97}"/>
-    <hyperlink ref="E12" r:id="rId31" xr:uid="{0D144571-55A3-E94F-8F46-D1363888B2BE}"/>
-    <hyperlink ref="F12" r:id="rId32" xr:uid="{CFEEBD42-A2E5-0A41-A870-2B0EE39C5C11}"/>
-    <hyperlink ref="H12" r:id="rId33" xr:uid="{834CC7B7-2BE6-0541-AC3C-E62BE015D00E}"/>
-    <hyperlink ref="G12" r:id="rId34" location="fee" xr:uid="{711839E3-8CFA-7348-85D5-110101ADF1F1}"/>
-    <hyperlink ref="G11" r:id="rId35" xr:uid="{F504B719-2B56-5842-9046-5B0F622B3B1F}"/>
-    <hyperlink ref="F13" r:id="rId36" location="faq-item-cf12375cde2cabd2a8d2330755daccab" xr:uid="{08F0E75D-0662-224C-95AB-F38B0E661CC4}"/>
-    <hyperlink ref="E13" r:id="rId37" xr:uid="{0668B499-FE37-1C46-BD90-C28B09887EB1}"/>
-    <hyperlink ref="H13" r:id="rId38" xr:uid="{E30636F5-F799-714D-9994-CA99478C131F}"/>
-    <hyperlink ref="G13" r:id="rId39" xr:uid="{219E4BD7-B776-9540-902D-9D7ECB9C17FE}"/>
-    <hyperlink ref="N13" r:id="rId40" xr:uid="{D5D56F56-279E-4C4C-9A12-4C6D52522F39}"/>
-    <hyperlink ref="O13" r:id="rId41" xr:uid="{6A477656-B45B-3E4B-BA9F-8F0BECA8B9D5}"/>
-    <hyperlink ref="E14" r:id="rId42" xr:uid="{AFA1F2B7-C3CD-E24E-9A70-8B8CE338554C}"/>
-    <hyperlink ref="F14" r:id="rId43" xr:uid="{43A4842B-4C6B-414E-B288-FA5228A6FDF4}"/>
-    <hyperlink ref="G14" r:id="rId44" xr:uid="{70C7C42F-7303-B248-BBF0-4FBA4B999972}"/>
-    <hyperlink ref="P4" r:id="rId45" location="Criteria" xr:uid="{3764C299-FD9D-4D4F-877A-5CB87573DAEC}"/>
-    <hyperlink ref="P8" r:id="rId46" xr:uid="{84E620E4-9D70-EE44-843B-1CDBBC32334C}"/>
-    <hyperlink ref="H6" r:id="rId47" xr:uid="{8AFB45E1-81B3-5C40-8B23-950635255762}"/>
-    <hyperlink ref="H14" r:id="rId48" xr:uid="{7D7D4C43-9EB6-3749-B614-F83745EFEC09}"/>
-    <hyperlink ref="P14" r:id="rId49" xr:uid="{598E0DD4-550C-C144-A2E3-8A034F20CBFC}"/>
-    <hyperlink ref="P3" r:id="rId50" xr:uid="{61853AA1-8110-2049-B32D-C0944B235A33}"/>
-    <hyperlink ref="P9" r:id="rId51" location="Intent" xr:uid="{D173156A-7229-C046-9366-4F5ED460A2E5}"/>
+    <hyperlink ref="H7" r:id="rId20" xr:uid="{591B7222-5477-E148-ABD9-FF20168E7657}"/>
+    <hyperlink ref="E7" r:id="rId21" xr:uid="{68AD0283-000E-1543-8C12-9982492CE858}"/>
+    <hyperlink ref="G7" r:id="rId22" xr:uid="{597A4B13-DC10-984D-8F0B-C7E55553D416}"/>
+    <hyperlink ref="F7" r:id="rId23" xr:uid="{47293E41-B350-3B46-8C4D-E84E5723B60A}"/>
+    <hyperlink ref="E8" r:id="rId24" xr:uid="{9E6B7615-1A63-3541-98FF-B2C298891114}"/>
+    <hyperlink ref="F8" r:id="rId25" xr:uid="{D1F4DB91-B060-0F40-8213-B4D96C0CD60C}"/>
+    <hyperlink ref="G8" r:id="rId26" xr:uid="{C185517C-0C6A-F248-AB9C-8E769857CC97}"/>
+    <hyperlink ref="H8" r:id="rId27" xr:uid="{0E49D778-1419-3A42-B937-0135BE140612}"/>
+    <hyperlink ref="E9" r:id="rId28" xr:uid="{9EC4233D-2824-A744-B3A4-56E54B82BA4A}"/>
+    <hyperlink ref="H9" r:id="rId29" xr:uid="{AC06A16C-CC15-C84D-86E0-5CBE81C52D67}"/>
+    <hyperlink ref="F9" r:id="rId30" xr:uid="{4DBDA220-0094-CA4D-9450-D0D468C5CB97}"/>
+    <hyperlink ref="E10" r:id="rId31" xr:uid="{0D144571-55A3-E94F-8F46-D1363888B2BE}"/>
+    <hyperlink ref="F10" r:id="rId32" xr:uid="{CFEEBD42-A2E5-0A41-A870-2B0EE39C5C11}"/>
+    <hyperlink ref="H10" r:id="rId33" xr:uid="{834CC7B7-2BE6-0541-AC3C-E62BE015D00E}"/>
+    <hyperlink ref="G10" r:id="rId34" location="fee" xr:uid="{711839E3-8CFA-7348-85D5-110101ADF1F1}"/>
+    <hyperlink ref="G9" r:id="rId35" xr:uid="{F504B719-2B56-5842-9046-5B0F622B3B1F}"/>
+    <hyperlink ref="F11" r:id="rId36" location="faq-item-cf12375cde2cabd2a8d2330755daccab" xr:uid="{08F0E75D-0662-224C-95AB-F38B0E661CC4}"/>
+    <hyperlink ref="E11" r:id="rId37" xr:uid="{0668B499-FE37-1C46-BD90-C28B09887EB1}"/>
+    <hyperlink ref="H11" r:id="rId38" xr:uid="{E30636F5-F799-714D-9994-CA99478C131F}"/>
+    <hyperlink ref="G11" r:id="rId39" xr:uid="{219E4BD7-B776-9540-902D-9D7ECB9C17FE}"/>
+    <hyperlink ref="M11" r:id="rId40" xr:uid="{D5D56F56-279E-4C4C-9A12-4C6D52522F39}"/>
+    <hyperlink ref="N11" r:id="rId41" xr:uid="{6A477656-B45B-3E4B-BA9F-8F0BECA8B9D5}"/>
+    <hyperlink ref="E12" r:id="rId42" xr:uid="{AFA1F2B7-C3CD-E24E-9A70-8B8CE338554C}"/>
+    <hyperlink ref="F12" r:id="rId43" xr:uid="{43A4842B-4C6B-414E-B288-FA5228A6FDF4}"/>
+    <hyperlink ref="G12" r:id="rId44" xr:uid="{70C7C42F-7303-B248-BBF0-4FBA4B999972}"/>
+    <hyperlink ref="O4" r:id="rId45" location="Criteria" xr:uid="{3764C299-FD9D-4D4F-877A-5CB87573DAEC}"/>
+    <hyperlink ref="O6" r:id="rId46" xr:uid="{84E620E4-9D70-EE44-843B-1CDBBC32334C}"/>
+    <hyperlink ref="H13" r:id="rId47" xr:uid="{8AFB45E1-81B3-5C40-8B23-950635255762}"/>
+    <hyperlink ref="H12" r:id="rId48" xr:uid="{7D7D4C43-9EB6-3749-B614-F83745EFEC09}"/>
+    <hyperlink ref="O12" r:id="rId49" xr:uid="{598E0DD4-550C-C144-A2E3-8A034F20CBFC}"/>
+    <hyperlink ref="O3" r:id="rId50" xr:uid="{61853AA1-8110-2049-B32D-C0944B235A33}"/>
+    <hyperlink ref="O7" r:id="rId51" location="Intent" xr:uid="{D173156A-7229-C046-9366-4F5ED460A2E5}"/>
     <hyperlink ref="E5" r:id="rId52" xr:uid="{0982BA71-29AB-9A4A-911C-6D8256ACA7CA}"/>
     <hyperlink ref="F5" r:id="rId53" xr:uid="{52D0097F-324A-D94F-B0A0-E8E9C14AA7A5}"/>
     <hyperlink ref="G5" r:id="rId54" xr:uid="{45F00734-9394-0547-993D-8438A8137D75}"/>
@@ -3494,7 +3499,7 @@
           <x14:formula1>
             <xm:f>申请状态!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Z2:AB14</xm:sqref>
+          <xm:sqref>Y2:AB14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3517,13 +3522,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17">
@@ -3531,13 +3536,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17">
@@ -3545,10 +3550,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17">
@@ -3556,10 +3561,10 @@
         <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -3576,10 +3581,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
